--- a/Code/Results/Cases/Case_5_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_93/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9623819948113489</v>
+        <v>1.027388102864774</v>
       </c>
       <c r="D2">
-        <v>0.9873852900689256</v>
+        <v>1.03079118328872</v>
       </c>
       <c r="E2">
-        <v>0.9730860281455346</v>
+        <v>1.027386650394401</v>
       </c>
       <c r="F2">
-        <v>0.9371240328082151</v>
+        <v>1.025920811995852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028857264345169</v>
+        <v>1.029688338125137</v>
       </c>
       <c r="J2">
-        <v>0.9857491746757117</v>
+        <v>1.032546254803232</v>
       </c>
       <c r="K2">
-        <v>0.9990232110790085</v>
+        <v>1.033601172550376</v>
       </c>
       <c r="L2">
-        <v>0.9849335031637391</v>
+        <v>1.030206529170885</v>
       </c>
       <c r="M2">
-        <v>0.9495348647804144</v>
+        <v>1.028744970734982</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9725848852604255</v>
+        <v>1.029210797770532</v>
       </c>
       <c r="D3">
-        <v>0.9950735953190875</v>
+        <v>1.032161511241162</v>
       </c>
       <c r="E3">
-        <v>0.9816779861521594</v>
+        <v>1.028964918901997</v>
       </c>
       <c r="F3">
-        <v>0.9505218808088199</v>
+        <v>1.028391611944887</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031662240426238</v>
+        <v>1.030078471264797</v>
       </c>
       <c r="J3">
-        <v>0.9938518774722344</v>
+        <v>1.034004631635953</v>
       </c>
       <c r="K3">
-        <v>1.005769900927621</v>
+        <v>1.034778421433916</v>
       </c>
       <c r="L3">
-        <v>0.9925507955873948</v>
+        <v>1.031590430017403</v>
       </c>
       <c r="M3">
-        <v>0.9618295944696591</v>
+        <v>1.031018671749184</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9788981061970836</v>
+        <v>1.030385608663026</v>
       </c>
       <c r="D4">
-        <v>0.9998336373101475</v>
+        <v>1.033044086593452</v>
       </c>
       <c r="E4">
-        <v>0.9870016838107601</v>
+        <v>1.029982246430839</v>
       </c>
       <c r="F4">
-        <v>0.9587931451197911</v>
+        <v>1.029984943621277</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033381803874517</v>
+        <v>1.030327797982162</v>
       </c>
       <c r="J4">
-        <v>0.998857449433085</v>
+        <v>1.034943526352196</v>
       </c>
       <c r="K4">
-        <v>1.009934070597725</v>
+        <v>1.035535549548722</v>
       </c>
       <c r="L4">
-        <v>0.9972595606303489</v>
+        <v>1.032481525277856</v>
       </c>
       <c r="M4">
-        <v>0.9694157297284354</v>
+        <v>1.032484215561182</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9814888124505523</v>
+        <v>1.030878422396736</v>
       </c>
       <c r="D5">
-        <v>1.001787409224016</v>
+        <v>1.033414151611036</v>
       </c>
       <c r="E5">
-        <v>0.9891878951883948</v>
+        <v>1.030409011911067</v>
       </c>
       <c r="F5">
-        <v>0.9621837794940862</v>
+        <v>1.030653514811744</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034083489690615</v>
+        <v>1.030431875041359</v>
       </c>
       <c r="J5">
-        <v>1.000909546653734</v>
+        <v>1.035337114287145</v>
       </c>
       <c r="K5">
-        <v>1.011640249597604</v>
+        <v>1.035852753030572</v>
       </c>
       <c r="L5">
-        <v>0.9991906627022386</v>
+        <v>1.032855110586847</v>
       </c>
       <c r="M5">
-        <v>0.9725244193752529</v>
+        <v>1.033099001739449</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9819202399896682</v>
+        <v>1.030961105517148</v>
       </c>
       <c r="D6">
-        <v>1.00211278785341</v>
+        <v>1.033476230764102</v>
       </c>
       <c r="E6">
-        <v>0.9895520501389744</v>
+        <v>1.030480614366127</v>
       </c>
       <c r="F6">
-        <v>0.9627482326675303</v>
+        <v>1.030765697720659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034200104898352</v>
+        <v>1.030449306821587</v>
       </c>
       <c r="J6">
-        <v>1.001251161083585</v>
+        <v>1.03540313410845</v>
       </c>
       <c r="K6">
-        <v>1.011924218997374</v>
+        <v>1.035905949230033</v>
       </c>
       <c r="L6">
-        <v>0.9995121739212052</v>
+        <v>1.032917777247752</v>
       </c>
       <c r="M6">
-        <v>0.9730418691386058</v>
+        <v>1.033202150135097</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9789329653306635</v>
+        <v>1.030392197863891</v>
       </c>
       <c r="D7">
-        <v>0.9998599247795416</v>
+        <v>1.033049035208335</v>
       </c>
       <c r="E7">
-        <v>0.9870310942772635</v>
+        <v>1.029987952477596</v>
       </c>
       <c r="F7">
-        <v>0.9588387806965532</v>
+        <v>1.029993882024683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0333912612173</v>
+        <v>1.030329191564081</v>
       </c>
       <c r="J7">
-        <v>0.9988850693393628</v>
+        <v>1.034948789881744</v>
       </c>
       <c r="K7">
-        <v>1.009957038646107</v>
+        <v>1.035539792311753</v>
       </c>
       <c r="L7">
-        <v>0.9972855493631833</v>
+        <v>1.032486521170753</v>
       </c>
       <c r="M7">
-        <v>0.9694575749801848</v>
+        <v>1.032492435537804</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9658936202372209</v>
+        <v>1.028005056527365</v>
       </c>
       <c r="D8">
-        <v>0.9900307042967293</v>
+        <v>1.031255154672267</v>
       </c>
       <c r="E8">
-        <v>0.9760415373130998</v>
+        <v>1.027920856266567</v>
       </c>
       <c r="F8">
-        <v>0.9417399704533321</v>
+        <v>1.02675697953702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029826037404112</v>
+        <v>1.029820834150756</v>
       </c>
       <c r="J8">
-        <v>0.9885396569938929</v>
+        <v>1.033040119896044</v>
       </c>
       <c r="K8">
-        <v>1.001347431155717</v>
+        <v>1.033999997460164</v>
       </c>
       <c r="L8">
-        <v>0.987556128025683</v>
+        <v>1.030675142812246</v>
       </c>
       <c r="M8">
-        <v>0.9537715539436113</v>
+        <v>1.029514578218143</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9403945219181379</v>
+        <v>1.023762369543413</v>
       </c>
       <c r="D9">
-        <v>0.9708455376233672</v>
+        <v>1.028061826352144</v>
       </c>
       <c r="E9">
-        <v>0.9546220233246039</v>
+        <v>1.024247507504275</v>
       </c>
       <c r="F9">
-        <v>0.9080857271224525</v>
+        <v>1.021009788581188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022724740947426</v>
+        <v>1.028900911511854</v>
       </c>
       <c r="J9">
-        <v>0.968243130842544</v>
+        <v>1.029639378597748</v>
       </c>
       <c r="K9">
-        <v>0.9844300258496651</v>
+        <v>1.03125051879773</v>
       </c>
       <c r="L9">
-        <v>0.9684968904378064</v>
+        <v>1.027448906160816</v>
       </c>
       <c r="M9">
-        <v>0.9228696546201361</v>
+        <v>1.024222054496853</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9211520154937036</v>
+        <v>1.020908066339006</v>
       </c>
       <c r="D10">
-        <v>0.9564158367982299</v>
+        <v>1.02591019285647</v>
       </c>
       <c r="E10">
-        <v>0.9385250872772353</v>
+        <v>1.021776651489312</v>
       </c>
       <c r="F10">
-        <v>0.8824284292750348</v>
+        <v>1.017146806851837</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.017285494482969</v>
+        <v>1.028271021615735</v>
       </c>
       <c r="J10">
-        <v>0.952885254414963</v>
+        <v>1.02734583275971</v>
       </c>
       <c r="K10">
-        <v>0.9716192801549316</v>
+        <v>1.029392232751239</v>
       </c>
       <c r="L10">
-        <v>0.9541006888824074</v>
+        <v>1.025273850195779</v>
       </c>
       <c r="M10">
-        <v>0.8993032438901644</v>
+        <v>1.020661146287537</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9121181411334046</v>
+        <v>1.019665658498755</v>
       </c>
       <c r="D11">
-        <v>0.9496596197571925</v>
+        <v>1.024972881107236</v>
       </c>
       <c r="E11">
-        <v>0.9309891651643496</v>
+        <v>1.020701263889504</v>
       </c>
       <c r="F11">
-        <v>0.870284292199205</v>
+        <v>1.015466083675844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014715322416517</v>
+        <v>1.027994246508848</v>
       </c>
       <c r="J11">
-        <v>0.9456661889313368</v>
+        <v>1.026346168085579</v>
       </c>
       <c r="K11">
-        <v>0.9655977047354811</v>
+        <v>1.028581351257984</v>
       </c>
       <c r="L11">
-        <v>0.9473414549506248</v>
+        <v>1.024326024664469</v>
       </c>
       <c r="M11">
-        <v>0.8881510816687672</v>
+        <v>1.019111017244328</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9086374925564281</v>
+        <v>1.019203171090338</v>
       </c>
       <c r="D12">
-        <v>0.9470599790725374</v>
+        <v>1.024623853929373</v>
       </c>
       <c r="E12">
-        <v>0.9280894074772158</v>
+        <v>1.020300968517793</v>
       </c>
       <c r="F12">
-        <v>0.8655860776637521</v>
+        <v>1.014840536117971</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013722847841481</v>
+        <v>1.027890827077006</v>
       </c>
       <c r="J12">
-        <v>0.9428835059815086</v>
+        <v>1.025973840933575</v>
       </c>
       <c r="K12">
-        <v>0.9632769197740546</v>
+        <v>1.028279198215507</v>
       </c>
       <c r="L12">
-        <v>0.9447373868769624</v>
+        <v>1.023973034662332</v>
       </c>
       <c r="M12">
-        <v>0.8838374764590287</v>
+        <v>1.01853395063955</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9093901416200016</v>
+        <v>1.019302422012985</v>
       </c>
       <c r="D13">
-        <v>0.9476219519501451</v>
+        <v>1.024698761048725</v>
       </c>
       <c r="E13">
-        <v>0.9287162667768347</v>
+        <v>1.020386872015344</v>
       </c>
       <c r="F13">
-        <v>0.8666029615322898</v>
+        <v>1.014974775604908</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013937553468628</v>
+        <v>1.02791303875128</v>
       </c>
       <c r="J13">
-        <v>0.9434852836560673</v>
+        <v>1.026053752338059</v>
       </c>
       <c r="K13">
-        <v>0.9637787890865981</v>
+        <v>1.028344054623748</v>
       </c>
       <c r="L13">
-        <v>0.9453004724133899</v>
+        <v>1.024048794452074</v>
       </c>
       <c r="M13">
-        <v>0.8847710677046307</v>
+        <v>1.018657791988022</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9118331150988447</v>
+        <v>1.019627449751082</v>
       </c>
       <c r="D14">
-        <v>0.9494466640963606</v>
+        <v>1.024944048235637</v>
       </c>
       <c r="E14">
-        <v>0.9307516283895231</v>
+        <v>1.020668192797182</v>
       </c>
       <c r="F14">
-        <v>0.8698999786554457</v>
+        <v>1.015414401533084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014634092797654</v>
+        <v>1.027985710372296</v>
       </c>
       <c r="J14">
-        <v>0.9454383433753322</v>
+        <v>1.026315412093499</v>
       </c>
       <c r="K14">
-        <v>0.9654076712046908</v>
+        <v>1.028556394799374</v>
       </c>
       <c r="L14">
-        <v>0.9471282054913056</v>
+        <v>1.024296865408213</v>
       </c>
       <c r="M14">
-        <v>0.887798208767322</v>
+        <v>1.019063343093954</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9133210549124274</v>
+        <v>1.019827576443929</v>
       </c>
       <c r="D15">
-        <v>0.9505585142133997</v>
+        <v>1.025095062148494</v>
       </c>
       <c r="E15">
-        <v>0.9319918117313675</v>
+        <v>1.0208414106628</v>
       </c>
       <c r="F15">
-        <v>0.8719054308277816</v>
+        <v>1.015685102260009</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015058053382395</v>
+        <v>1.02803040432104</v>
       </c>
       <c r="J15">
-        <v>0.9466277299184565</v>
+        <v>1.026476495118641</v>
       </c>
       <c r="K15">
-        <v>0.9663996878705799</v>
+        <v>1.028687097385053</v>
       </c>
       <c r="L15">
-        <v>0.9482414547266554</v>
+        <v>1.024449586817804</v>
       </c>
       <c r="M15">
-        <v>0.8896396324230897</v>
+        <v>1.019313045653444</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9217352261920632</v>
+        <v>1.020990381962374</v>
       </c>
       <c r="D16">
-        <v>0.9568524322894463</v>
+        <v>1.025972278576817</v>
       </c>
       <c r="E16">
-        <v>0.9390120681823789</v>
+        <v>1.021847903733155</v>
       </c>
       <c r="F16">
-        <v>0.8832100905780378</v>
+        <v>1.017258177874437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.017451104068032</v>
+        <v>1.028289304745706</v>
       </c>
       <c r="J16">
-        <v>0.9533511293640913</v>
+        <v>1.027412037294556</v>
       </c>
       <c r="K16">
-        <v>0.9720079019878713</v>
+        <v>1.029445915352658</v>
       </c>
       <c r="L16">
-        <v>0.9545370627113389</v>
+        <v>1.025336625705897</v>
       </c>
       <c r="M16">
-        <v>0.9000211407809025</v>
+        <v>1.020763846161115</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9268131071700423</v>
+        <v>1.021718025145026</v>
       </c>
       <c r="D17">
-        <v>0.9606558450044221</v>
+        <v>1.026521008864444</v>
       </c>
       <c r="E17">
-        <v>0.9432544935864056</v>
+        <v>1.022477763685838</v>
       </c>
       <c r="F17">
-        <v>0.8900045589068331</v>
+        <v>1.018242745309833</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018891222539894</v>
+        <v>1.028450622256203</v>
       </c>
       <c r="J17">
-        <v>0.9574064184591707</v>
+        <v>1.027997109307553</v>
       </c>
       <c r="K17">
-        <v>0.9753907754007721</v>
+        <v>1.029920219937332</v>
       </c>
       <c r="L17">
-        <v>0.958336432228913</v>
+        <v>1.025891416660287</v>
       </c>
       <c r="M17">
-        <v>0.9062616430064663</v>
+        <v>1.021671660950311</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9297088110035864</v>
+        <v>1.022141824266523</v>
       </c>
       <c r="D18">
-        <v>0.962826388591183</v>
+        <v>1.026840531156086</v>
       </c>
       <c r="E18">
-        <v>0.9456756765065866</v>
+        <v>1.022844622188338</v>
       </c>
       <c r="F18">
-        <v>0.8938704321068736</v>
+        <v>1.018816255548458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01971092001046</v>
+        <v>1.028544327845645</v>
       </c>
       <c r="J18">
-        <v>0.9597181559498549</v>
+        <v>1.028337742135138</v>
       </c>
       <c r="K18">
-        <v>0.9773191965425834</v>
+        <v>1.0301962738641</v>
       </c>
       <c r="L18">
-        <v>0.9605029817903217</v>
+        <v>1.026214438288225</v>
       </c>
       <c r="M18">
-        <v>0.9098124983094702</v>
+        <v>1.02220038259124</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9306854638083016</v>
+        <v>1.022286224039145</v>
       </c>
       <c r="D19">
-        <v>0.9635587175278925</v>
+        <v>1.026949388546213</v>
       </c>
       <c r="E19">
-        <v>0.946492593262791</v>
+        <v>1.022969622582725</v>
       </c>
       <c r="F19">
-        <v>0.8951729256373161</v>
+        <v>1.019011678282565</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01998711597682</v>
+        <v>1.028576213414405</v>
       </c>
       <c r="J19">
-        <v>0.9604977083191895</v>
+        <v>1.028453783025156</v>
       </c>
       <c r="K19">
-        <v>0.9779694814350395</v>
+        <v>1.030290299944441</v>
       </c>
       <c r="L19">
-        <v>0.9612336885496013</v>
+        <v>1.026324482849074</v>
       </c>
       <c r="M19">
-        <v>0.9110088733718593</v>
+        <v>1.02238053006396</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9262752641754124</v>
+        <v>1.021640020548739</v>
       </c>
       <c r="D20">
-        <v>0.9602528190288647</v>
+        <v>1.02646219158951</v>
       </c>
       <c r="E20">
-        <v>0.9428049388015316</v>
+        <v>1.022410240473024</v>
       </c>
       <c r="F20">
-        <v>0.8892858339797763</v>
+        <v>1.018137190652185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018738846078618</v>
+        <v>1.028433354620343</v>
       </c>
       <c r="J20">
-        <v>0.9569769726330092</v>
+        <v>1.027934401931179</v>
       </c>
       <c r="K20">
-        <v>0.9750325353789806</v>
+        <v>1.029869393735215</v>
       </c>
       <c r="L20">
-        <v>0.9579340134301892</v>
+        <v>1.025831952842935</v>
       </c>
       <c r="M20">
-        <v>0.9056014959733986</v>
+        <v>1.021574343177671</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9111173592746751</v>
+        <v>1.019531765072958</v>
       </c>
       <c r="D21">
-        <v>0.9489119489880663</v>
+        <v>1.024871841396066</v>
       </c>
       <c r="E21">
-        <v>0.9301551894328518</v>
+        <v>1.020585374454092</v>
       </c>
       <c r="F21">
-        <v>0.8689345676157179</v>
+        <v>1.015284977594884</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014430074978738</v>
+        <v>1.027964327369926</v>
       </c>
       <c r="J21">
-        <v>0.9448661589709035</v>
+        <v>1.026238387815021</v>
       </c>
       <c r="K21">
-        <v>0.9649304494849539</v>
+        <v>1.02849389244507</v>
       </c>
       <c r="L21">
-        <v>0.9465926986316182</v>
+        <v>1.024223840420023</v>
       </c>
       <c r="M21">
-        <v>0.8869117933238564</v>
+        <v>1.018943954073924</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9008489386570926</v>
+        <v>1.01820041029841</v>
       </c>
       <c r="D22">
-        <v>0.9412502210008843</v>
+        <v>1.023866893540325</v>
       </c>
       <c r="E22">
-        <v>0.9216084221407783</v>
+        <v>1.019433087404771</v>
       </c>
       <c r="F22">
-        <v>0.8550309129216859</v>
+        <v>1.013484410090491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011498249767169</v>
+        <v>1.027665881804098</v>
       </c>
       <c r="J22">
-        <v>0.9366545123236106</v>
+        <v>1.02516619700473</v>
       </c>
       <c r="K22">
-        <v>0.9580828368198139</v>
+        <v>1.02762352183618</v>
       </c>
       <c r="L22">
-        <v>0.9389110367046462</v>
+        <v>1.023207390995284</v>
       </c>
       <c r="M22">
-        <v>0.8741486760270426</v>
+        <v>1.017282698574559</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9063705801587906</v>
+        <v>1.018906747236364</v>
       </c>
       <c r="D23">
-        <v>0.945367938180967</v>
+        <v>1.024400119274367</v>
       </c>
       <c r="E23">
-        <v>0.9262019632729149</v>
+        <v>1.020044411050158</v>
       </c>
       <c r="F23">
-        <v>0.8625200687846479</v>
+        <v>1.014439629552488</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013075872846543</v>
+        <v>1.027824432463408</v>
       </c>
       <c r="J23">
-        <v>0.9410708260701217</v>
+        <v>1.025735147264079</v>
       </c>
       <c r="K23">
-        <v>0.9617652559929988</v>
+        <v>1.02808545328471</v>
       </c>
       <c r="L23">
-        <v>0.9430414746504536</v>
+        <v>1.023746746136102</v>
       </c>
       <c r="M23">
-        <v>0.8810227751036385</v>
+        <v>1.018164079893409</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9265184952393517</v>
+        <v>1.021675269391704</v>
       </c>
       <c r="D24">
-        <v>0.9604350762193193</v>
+        <v>1.026488770260924</v>
       </c>
       <c r="E24">
-        <v>0.9430082370048806</v>
+        <v>1.022440752937626</v>
       </c>
       <c r="F24">
-        <v>0.8896108929903591</v>
+        <v>1.018184888639803</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018807760774641</v>
+        <v>1.028441158320963</v>
       </c>
       <c r="J24">
-        <v>0.9571711853557097</v>
+        <v>1.027962738640553</v>
       </c>
       <c r="K24">
-        <v>0.975194545992452</v>
+        <v>1.029892361761262</v>
       </c>
       <c r="L24">
-        <v>0.9581160012698262</v>
+        <v>1.025858823769387</v>
       </c>
       <c r="M24">
-        <v>0.905900061344821</v>
+        <v>1.021618319333701</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.947334814977761</v>
+        <v>1.024863651307452</v>
       </c>
       <c r="D25">
-        <v>0.9760611442162094</v>
+        <v>1.028891310207258</v>
       </c>
       <c r="E25">
-        <v>0.960442242788454</v>
+        <v>1.025200936565805</v>
       </c>
       <c r="F25">
-        <v>0.9172797111431445</v>
+        <v>1.022500954845393</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02467157004282</v>
+        <v>1.029141632367965</v>
       </c>
       <c r="J25">
-        <v>0.9737745426495731</v>
+        <v>1.030523111253799</v>
       </c>
       <c r="K25">
-        <v>0.9890428068154088</v>
+        <v>1.031965711012572</v>
       </c>
       <c r="L25">
-        <v>0.9736873380972483</v>
+        <v>1.028287152545051</v>
       </c>
       <c r="M25">
-        <v>0.9313139626234914</v>
+        <v>1.025595874297711</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_93/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_93/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027388102864774</v>
+        <v>0.9623819948113495</v>
       </c>
       <c r="D2">
-        <v>1.03079118328872</v>
+        <v>0.9873852900689263</v>
       </c>
       <c r="E2">
-        <v>1.027386650394401</v>
+        <v>0.9730860281455349</v>
       </c>
       <c r="F2">
-        <v>1.025920811995852</v>
+        <v>0.9371240328082158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029688338125137</v>
+        <v>1.02885726434517</v>
       </c>
       <c r="J2">
-        <v>1.032546254803232</v>
+        <v>0.9857491746757122</v>
       </c>
       <c r="K2">
-        <v>1.033601172550376</v>
+        <v>0.999023211079009</v>
       </c>
       <c r="L2">
-        <v>1.030206529170885</v>
+        <v>0.9849335031637394</v>
       </c>
       <c r="M2">
-        <v>1.028744970734982</v>
+        <v>0.9495348647804149</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029210797770532</v>
+        <v>0.9725848852604234</v>
       </c>
       <c r="D3">
-        <v>1.032161511241162</v>
+        <v>0.9950735953190853</v>
       </c>
       <c r="E3">
-        <v>1.028964918901997</v>
+        <v>0.9816779861521571</v>
       </c>
       <c r="F3">
-        <v>1.028391611944887</v>
+        <v>0.9505218808088166</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030078471264797</v>
+        <v>1.031662240426237</v>
       </c>
       <c r="J3">
-        <v>1.034004631635953</v>
+        <v>0.9938518774722319</v>
       </c>
       <c r="K3">
-        <v>1.034778421433916</v>
+        <v>1.005769900927618</v>
       </c>
       <c r="L3">
-        <v>1.031590430017403</v>
+        <v>0.9925507955873923</v>
       </c>
       <c r="M3">
-        <v>1.031018671749184</v>
+        <v>0.9618295944696558</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030385608663026</v>
+        <v>0.9788981061970842</v>
       </c>
       <c r="D4">
-        <v>1.033044086593452</v>
+        <v>0.999833637310148</v>
       </c>
       <c r="E4">
-        <v>1.029982246430839</v>
+        <v>0.9870016838107604</v>
       </c>
       <c r="F4">
-        <v>1.029984943621277</v>
+        <v>0.9587931451197916</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030327797982162</v>
+        <v>1.033381803874517</v>
       </c>
       <c r="J4">
-        <v>1.034943526352196</v>
+        <v>0.9988574494330855</v>
       </c>
       <c r="K4">
-        <v>1.035535549548722</v>
+        <v>1.009934070597725</v>
       </c>
       <c r="L4">
-        <v>1.032481525277856</v>
+        <v>0.9972595606303493</v>
       </c>
       <c r="M4">
-        <v>1.032484215561182</v>
+        <v>0.9694157297284358</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030878422396736</v>
+        <v>0.9814888124505486</v>
       </c>
       <c r="D5">
-        <v>1.033414151611036</v>
+        <v>1.001787409224012</v>
       </c>
       <c r="E5">
-        <v>1.030409011911067</v>
+        <v>0.989187895188391</v>
       </c>
       <c r="F5">
-        <v>1.030653514811744</v>
+        <v>0.9621837794940825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030431875041359</v>
+        <v>1.034083489690613</v>
       </c>
       <c r="J5">
-        <v>1.035337114287145</v>
+        <v>1.000909546653731</v>
       </c>
       <c r="K5">
-        <v>1.035852753030572</v>
+        <v>1.011640249597601</v>
       </c>
       <c r="L5">
-        <v>1.032855110586847</v>
+        <v>0.999190662702235</v>
       </c>
       <c r="M5">
-        <v>1.033099001739449</v>
+        <v>0.9725244193752492</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030961105517148</v>
+        <v>0.9819202399896668</v>
       </c>
       <c r="D6">
-        <v>1.033476230764102</v>
+        <v>1.002112787853409</v>
       </c>
       <c r="E6">
-        <v>1.030480614366127</v>
+        <v>0.9895520501389731</v>
       </c>
       <c r="F6">
-        <v>1.030765697720659</v>
+        <v>0.9627482326675291</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030449306821587</v>
+        <v>1.034200104898351</v>
       </c>
       <c r="J6">
-        <v>1.03540313410845</v>
+        <v>1.001251161083584</v>
       </c>
       <c r="K6">
-        <v>1.035905949230033</v>
+        <v>1.011924218997373</v>
       </c>
       <c r="L6">
-        <v>1.032917777247752</v>
+        <v>0.9995121739212038</v>
       </c>
       <c r="M6">
-        <v>1.033202150135097</v>
+        <v>0.9730418691386045</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030392197863891</v>
+        <v>0.9789329653306641</v>
       </c>
       <c r="D7">
-        <v>1.033049035208335</v>
+        <v>0.9998599247795421</v>
       </c>
       <c r="E7">
-        <v>1.029987952477596</v>
+        <v>0.9870310942772642</v>
       </c>
       <c r="F7">
-        <v>1.029993882024683</v>
+        <v>0.9588387806965543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030329191564081</v>
+        <v>1.0333912612173</v>
       </c>
       <c r="J7">
-        <v>1.034948789881744</v>
+        <v>0.9988850693393635</v>
       </c>
       <c r="K7">
-        <v>1.035539792311753</v>
+        <v>1.009957038646108</v>
       </c>
       <c r="L7">
-        <v>1.032486521170753</v>
+        <v>0.9972855493631838</v>
       </c>
       <c r="M7">
-        <v>1.032492435537804</v>
+        <v>0.9694575749801859</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028005056527365</v>
+        <v>0.965893620237221</v>
       </c>
       <c r="D8">
-        <v>1.031255154672267</v>
+        <v>0.9900307042967296</v>
       </c>
       <c r="E8">
-        <v>1.027920856266567</v>
+        <v>0.9760415373130998</v>
       </c>
       <c r="F8">
-        <v>1.02675697953702</v>
+        <v>0.9417399704533321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029820834150756</v>
+        <v>1.029826037404112</v>
       </c>
       <c r="J8">
-        <v>1.033040119896044</v>
+        <v>0.9885396569938929</v>
       </c>
       <c r="K8">
-        <v>1.033999997460164</v>
+        <v>1.001347431155717</v>
       </c>
       <c r="L8">
-        <v>1.030675142812246</v>
+        <v>0.9875561280256829</v>
       </c>
       <c r="M8">
-        <v>1.029514578218143</v>
+        <v>0.9537715539436113</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023762369543413</v>
+        <v>0.9403945219181382</v>
       </c>
       <c r="D9">
-        <v>1.028061826352144</v>
+        <v>0.9708455376233672</v>
       </c>
       <c r="E9">
-        <v>1.024247507504275</v>
+        <v>0.9546220233246041</v>
       </c>
       <c r="F9">
-        <v>1.021009788581188</v>
+        <v>0.9080857271224531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028900911511854</v>
+        <v>1.022724740947426</v>
       </c>
       <c r="J9">
-        <v>1.029639378597748</v>
+        <v>0.9682431308425442</v>
       </c>
       <c r="K9">
-        <v>1.03125051879773</v>
+        <v>0.9844300258496652</v>
       </c>
       <c r="L9">
-        <v>1.027448906160816</v>
+        <v>0.9684968904378066</v>
       </c>
       <c r="M9">
-        <v>1.024222054496853</v>
+        <v>0.9228696546201369</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020908066339006</v>
+        <v>0.9211520154937044</v>
       </c>
       <c r="D10">
-        <v>1.02591019285647</v>
+        <v>0.9564158367982305</v>
       </c>
       <c r="E10">
-        <v>1.021776651489312</v>
+        <v>0.9385250872772356</v>
       </c>
       <c r="F10">
-        <v>1.017146806851837</v>
+        <v>0.8824284292750356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028271021615735</v>
+        <v>1.017285494482969</v>
       </c>
       <c r="J10">
-        <v>1.02734583275971</v>
+        <v>0.9528852544149634</v>
       </c>
       <c r="K10">
-        <v>1.029392232751239</v>
+        <v>0.9716192801549323</v>
       </c>
       <c r="L10">
-        <v>1.025273850195779</v>
+        <v>0.9541006888824078</v>
       </c>
       <c r="M10">
-        <v>1.020661146287537</v>
+        <v>0.899303243890165</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019665658498755</v>
+        <v>0.9121181411334057</v>
       </c>
       <c r="D11">
-        <v>1.024972881107236</v>
+        <v>0.9496596197571934</v>
       </c>
       <c r="E11">
-        <v>1.020701263889504</v>
+        <v>0.9309891651643505</v>
       </c>
       <c r="F11">
-        <v>1.015466083675844</v>
+        <v>0.8702842921992061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027994246508848</v>
+        <v>1.014715322416518</v>
       </c>
       <c r="J11">
-        <v>1.026346168085579</v>
+        <v>0.9456661889313379</v>
       </c>
       <c r="K11">
-        <v>1.028581351257984</v>
+        <v>0.965597704735482</v>
       </c>
       <c r="L11">
-        <v>1.024326024664469</v>
+        <v>0.9473414549506256</v>
       </c>
       <c r="M11">
-        <v>1.019111017244328</v>
+        <v>0.8881510816687683</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019203171090338</v>
+        <v>0.908637492556428</v>
       </c>
       <c r="D12">
-        <v>1.024623853929373</v>
+        <v>0.9470599790725375</v>
       </c>
       <c r="E12">
-        <v>1.020300968517793</v>
+        <v>0.9280894074772158</v>
       </c>
       <c r="F12">
-        <v>1.014840536117971</v>
+        <v>0.8655860776637517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027890827077006</v>
+        <v>1.013722847841481</v>
       </c>
       <c r="J12">
-        <v>1.025973840933575</v>
+        <v>0.9428835059815087</v>
       </c>
       <c r="K12">
-        <v>1.028279198215507</v>
+        <v>0.9632769197740547</v>
       </c>
       <c r="L12">
-        <v>1.023973034662332</v>
+        <v>0.9447373868769623</v>
       </c>
       <c r="M12">
-        <v>1.01853395063955</v>
+        <v>0.8838374764590283</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019302422012985</v>
+        <v>0.9093901416200004</v>
       </c>
       <c r="D13">
-        <v>1.024698761048725</v>
+        <v>0.9476219519501442</v>
       </c>
       <c r="E13">
-        <v>1.020386872015344</v>
+        <v>0.9287162667768334</v>
       </c>
       <c r="F13">
-        <v>1.014974775604908</v>
+        <v>0.8666029615322878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02791303875128</v>
+        <v>1.013937553468627</v>
       </c>
       <c r="J13">
-        <v>1.026053752338059</v>
+        <v>0.9434852836560662</v>
       </c>
       <c r="K13">
-        <v>1.028344054623748</v>
+        <v>0.9637787890865972</v>
       </c>
       <c r="L13">
-        <v>1.024048794452074</v>
+        <v>0.9453004724133887</v>
       </c>
       <c r="M13">
-        <v>1.018657791988022</v>
+        <v>0.8847710677046289</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019627449751082</v>
+        <v>0.9118331150988461</v>
       </c>
       <c r="D14">
-        <v>1.024944048235637</v>
+        <v>0.9494466640963614</v>
       </c>
       <c r="E14">
-        <v>1.020668192797182</v>
+        <v>0.9307516283895244</v>
       </c>
       <c r="F14">
-        <v>1.015414401533084</v>
+        <v>0.8698999786554474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027985710372296</v>
+        <v>1.014634092797655</v>
       </c>
       <c r="J14">
-        <v>1.026315412093499</v>
+        <v>0.9454383433753337</v>
       </c>
       <c r="K14">
-        <v>1.028556394799374</v>
+        <v>0.965407671204692</v>
       </c>
       <c r="L14">
-        <v>1.024296865408213</v>
+        <v>0.9471282054913069</v>
       </c>
       <c r="M14">
-        <v>1.019063343093954</v>
+        <v>0.8877982087673236</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019827576443929</v>
+        <v>0.9133210549124281</v>
       </c>
       <c r="D15">
-        <v>1.025095062148494</v>
+        <v>0.9505585142134003</v>
       </c>
       <c r="E15">
-        <v>1.0208414106628</v>
+        <v>0.9319918117313678</v>
       </c>
       <c r="F15">
-        <v>1.015685102260009</v>
+        <v>0.8719054308277822</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02803040432104</v>
+        <v>1.015058053382396</v>
       </c>
       <c r="J15">
-        <v>1.026476495118641</v>
+        <v>0.9466277299184571</v>
       </c>
       <c r="K15">
-        <v>1.028687097385053</v>
+        <v>0.9663996878705807</v>
       </c>
       <c r="L15">
-        <v>1.024449586817804</v>
+        <v>0.948241454726656</v>
       </c>
       <c r="M15">
-        <v>1.019313045653444</v>
+        <v>0.8896396324230904</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020990381962374</v>
+        <v>0.9217352261920625</v>
       </c>
       <c r="D16">
-        <v>1.025972278576817</v>
+        <v>0.9568524322894457</v>
       </c>
       <c r="E16">
-        <v>1.021847903733155</v>
+        <v>0.9390120681823786</v>
       </c>
       <c r="F16">
-        <v>1.017258177874437</v>
+        <v>0.8832100905780373</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028289304745706</v>
+        <v>1.017451104068032</v>
       </c>
       <c r="J16">
-        <v>1.027412037294556</v>
+        <v>0.9533511293640911</v>
       </c>
       <c r="K16">
-        <v>1.029445915352658</v>
+        <v>0.9720079019878709</v>
       </c>
       <c r="L16">
-        <v>1.025336625705897</v>
+        <v>0.9545370627113385</v>
       </c>
       <c r="M16">
-        <v>1.020763846161115</v>
+        <v>0.9000211407809021</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021718025145026</v>
+        <v>0.9268131071700416</v>
       </c>
       <c r="D17">
-        <v>1.026521008864444</v>
+        <v>0.9606558450044218</v>
       </c>
       <c r="E17">
-        <v>1.022477763685838</v>
+        <v>0.9432544935864048</v>
       </c>
       <c r="F17">
-        <v>1.018242745309833</v>
+        <v>0.8900045589068329</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028450622256203</v>
+        <v>1.018891222539894</v>
       </c>
       <c r="J17">
-        <v>1.027997109307553</v>
+        <v>0.95740641845917</v>
       </c>
       <c r="K17">
-        <v>1.029920219937332</v>
+        <v>0.9753907754007716</v>
       </c>
       <c r="L17">
-        <v>1.025891416660287</v>
+        <v>0.9583364322289122</v>
       </c>
       <c r="M17">
-        <v>1.021671660950311</v>
+        <v>0.9062616430064664</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022141824266523</v>
+        <v>0.9297088110035876</v>
       </c>
       <c r="D18">
-        <v>1.026840531156086</v>
+        <v>0.9628263885911837</v>
       </c>
       <c r="E18">
-        <v>1.022844622188338</v>
+        <v>0.945675676506588</v>
       </c>
       <c r="F18">
-        <v>1.018816255548458</v>
+        <v>0.8938704321068751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028544327845645</v>
+        <v>1.01971092001046</v>
       </c>
       <c r="J18">
-        <v>1.028337742135138</v>
+        <v>0.9597181559498561</v>
       </c>
       <c r="K18">
-        <v>1.0301962738641</v>
+        <v>0.9773191965425844</v>
       </c>
       <c r="L18">
-        <v>1.026214438288225</v>
+        <v>0.960502981790323</v>
       </c>
       <c r="M18">
-        <v>1.02220038259124</v>
+        <v>0.9098124983094721</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022286224039145</v>
+        <v>0.9306854638083023</v>
       </c>
       <c r="D19">
-        <v>1.026949388546213</v>
+        <v>0.9635587175278932</v>
       </c>
       <c r="E19">
-        <v>1.022969622582725</v>
+        <v>0.9464925932627917</v>
       </c>
       <c r="F19">
-        <v>1.019011678282565</v>
+        <v>0.8951729256373169</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028576213414405</v>
+        <v>1.01998711597682</v>
       </c>
       <c r="J19">
-        <v>1.028453783025156</v>
+        <v>0.9604977083191906</v>
       </c>
       <c r="K19">
-        <v>1.030290299944441</v>
+        <v>0.9779694814350404</v>
       </c>
       <c r="L19">
-        <v>1.026324482849074</v>
+        <v>0.961233688549602</v>
       </c>
       <c r="M19">
-        <v>1.02238053006396</v>
+        <v>0.91100887337186</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021640020548739</v>
+        <v>0.9262752641754104</v>
       </c>
       <c r="D20">
-        <v>1.02646219158951</v>
+        <v>0.9602528190288633</v>
       </c>
       <c r="E20">
-        <v>1.022410240473024</v>
+        <v>0.9428049388015296</v>
       </c>
       <c r="F20">
-        <v>1.018137190652185</v>
+        <v>0.8892858339797736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028433354620343</v>
+        <v>1.018738846078618</v>
       </c>
       <c r="J20">
-        <v>1.027934401931179</v>
+        <v>0.9569769726330072</v>
       </c>
       <c r="K20">
-        <v>1.029869393735215</v>
+        <v>0.9750325353789792</v>
       </c>
       <c r="L20">
-        <v>1.025831952842935</v>
+        <v>0.9579340134301874</v>
       </c>
       <c r="M20">
-        <v>1.021574343177671</v>
+        <v>0.9056014959733958</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019531765072958</v>
+        <v>0.9111173592746755</v>
       </c>
       <c r="D21">
-        <v>1.024871841396066</v>
+        <v>0.9489119489880667</v>
       </c>
       <c r="E21">
-        <v>1.020585374454092</v>
+        <v>0.930155189432852</v>
       </c>
       <c r="F21">
-        <v>1.015284977594884</v>
+        <v>0.8689345676157185</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027964327369926</v>
+        <v>1.014430074978738</v>
       </c>
       <c r="J21">
-        <v>1.026238387815021</v>
+        <v>0.944866158970904</v>
       </c>
       <c r="K21">
-        <v>1.02849389244507</v>
+        <v>0.9649304494849541</v>
       </c>
       <c r="L21">
-        <v>1.024223840420023</v>
+        <v>0.9465926986316183</v>
       </c>
       <c r="M21">
-        <v>1.018943954073924</v>
+        <v>0.8869117933238572</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01820041029841</v>
+        <v>0.9008489386570909</v>
       </c>
       <c r="D22">
-        <v>1.023866893540325</v>
+        <v>0.9412502210008831</v>
       </c>
       <c r="E22">
-        <v>1.019433087404771</v>
+        <v>0.9216084221407763</v>
       </c>
       <c r="F22">
-        <v>1.013484410090491</v>
+        <v>0.8550309129216843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027665881804098</v>
+        <v>1.011498249767168</v>
       </c>
       <c r="J22">
-        <v>1.02516619700473</v>
+        <v>0.9366545123236092</v>
       </c>
       <c r="K22">
-        <v>1.02762352183618</v>
+        <v>0.9580828368198128</v>
       </c>
       <c r="L22">
-        <v>1.023207390995284</v>
+        <v>0.9389110367046445</v>
       </c>
       <c r="M22">
-        <v>1.017282698574559</v>
+        <v>0.8741486760270409</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018906747236364</v>
+        <v>0.9063705801587915</v>
       </c>
       <c r="D23">
-        <v>1.024400119274367</v>
+        <v>0.9453679381809678</v>
       </c>
       <c r="E23">
-        <v>1.020044411050158</v>
+        <v>0.9262019632729155</v>
       </c>
       <c r="F23">
-        <v>1.014439629552488</v>
+        <v>0.8625200687846485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027824432463408</v>
+        <v>1.013075872846543</v>
       </c>
       <c r="J23">
-        <v>1.025735147264079</v>
+        <v>0.9410708260701225</v>
       </c>
       <c r="K23">
-        <v>1.02808545328471</v>
+        <v>0.9617652559929994</v>
       </c>
       <c r="L23">
-        <v>1.023746746136102</v>
+        <v>0.9430414746504544</v>
       </c>
       <c r="M23">
-        <v>1.018164079893409</v>
+        <v>0.8810227751036392</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021675269391704</v>
+        <v>0.9265184952393535</v>
       </c>
       <c r="D24">
-        <v>1.026488770260924</v>
+        <v>0.960435076219321</v>
       </c>
       <c r="E24">
-        <v>1.022440752937626</v>
+        <v>0.9430082370048821</v>
       </c>
       <c r="F24">
-        <v>1.018184888639803</v>
+        <v>0.8896108929903613</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028441158320963</v>
+        <v>1.018807760774641</v>
       </c>
       <c r="J24">
-        <v>1.027962738640553</v>
+        <v>0.9571711853557116</v>
       </c>
       <c r="K24">
-        <v>1.029892361761262</v>
+        <v>0.9751945459924536</v>
       </c>
       <c r="L24">
-        <v>1.025858823769387</v>
+        <v>0.9581160012698279</v>
       </c>
       <c r="M24">
-        <v>1.021618319333701</v>
+        <v>0.9059000613448233</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024863651307452</v>
+        <v>0.9473348149777623</v>
       </c>
       <c r="D25">
-        <v>1.028891310207258</v>
+        <v>0.9760611442162102</v>
       </c>
       <c r="E25">
-        <v>1.025200936565805</v>
+        <v>0.9604422427884554</v>
       </c>
       <c r="F25">
-        <v>1.022500954845393</v>
+        <v>0.9172797111431455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029141632367965</v>
+        <v>1.024671570042821</v>
       </c>
       <c r="J25">
-        <v>1.030523111253799</v>
+        <v>0.973774542649574</v>
       </c>
       <c r="K25">
-        <v>1.031965711012572</v>
+        <v>0.9890428068154095</v>
       </c>
       <c r="L25">
-        <v>1.028287152545051</v>
+        <v>0.9736873380972496</v>
       </c>
       <c r="M25">
-        <v>1.025595874297711</v>
+        <v>0.9313139626234925</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
